--- a/doc/figures/Figure2/Figure2A.xlsx
+++ b/doc/figures/Figure2/Figure2A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamklie/Desktop/lab/projects/predictMEE/results/figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamklie/Desktop/lab/projects/PredictMEE/doc/figures/Figure2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{77CAD8F4-9175-4042-A691-FA6D464B4C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9903280-5973-5A4B-838C-A193EAAFB7EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440"/>
+    <workbookView xWindow="-33220" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure1A" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>SRS441497</t>
   </si>
@@ -101,12 +101,21 @@
   </si>
   <si>
     <t>SRS1860718</t>
+  </si>
+  <si>
+    <t>Non-tumor DNA sample from BLOOD of a human female participant in the dbGaP study "Sweden-Schizophrenia Population-Based Case-Control Exome Sequencing</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>SRS1066645</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="12"/>
@@ -716,12 +725,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="24"/>
+        <sz val="20"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -730,13 +740,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="20"/>
+        <sz val="24"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -752,12 +761,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:D10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" tableBorderDxfId="3">
-  <autoFilter ref="B2:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="B2:D11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="SRS" dataDxfId="2"/>
-    <tableColumn id="2" name="Attribute" dataDxfId="1"/>
-    <tableColumn id="3" name="Value" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SRS" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Attribute" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1059,11 +1068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D10"/>
+      <selection activeCell="B2" sqref="B2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1086,89 +1095,100 @@
     </row>
     <row r="3" spans="2:4" ht="25">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="25">
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="25">
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="25">
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="25">
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="25">
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="25">
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="25">
       <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="25">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
